--- a/rudi-facet/rudi-facet-kaccess/src/main/resources/metadata/rudi.xlsx
+++ b/rudi-facet/rudi-facet-kaccess/src/main/resources/metadata/rudi.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MLA20849\Projets\RUDI\git\rudi\rudi-facet\rudi-facet-kaccess\src\main\resources\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC324F-2926-44A9-BF87-F544AB64FFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3B9D7-690D-4649-AD80-FA6827D1A3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rudi" sheetId="1" r:id="rId1"/>
+    <sheet name="rudi" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="344">
   <si>
     <t>#metadataBlock</t>
   </si>
@@ -886,6 +886,186 @@
   </si>
   <si>
     <t>SERIES</t>
+  </si>
+  <si>
+    <t>rudi_access_condition_other_constraints_text</t>
+  </si>
+  <si>
+    <t>rudi_contact_summary</t>
+  </si>
+  <si>
+    <t>Description of the contact person</t>
+  </si>
+  <si>
+    <t>rudi_metadata_info_dates_expires</t>
+  </si>
+  <si>
+    <t>rudi_metadata_info_provider_organization_caption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicit/complete name for an acronym, or alternative name of the organization </t>
+  </si>
+  <si>
+    <t>rudi_metadata_info_provider_organization_summary</t>
+  </si>
+  <si>
+    <t>Describes the organization</t>
+  </si>
+  <si>
+    <t>rudi_dataset_dates_expires</t>
+  </si>
+  <si>
+    <t>rudi_media_name</t>
+  </si>
+  <si>
+    <t>Name of the Media</t>
+  </si>
+  <si>
+    <t>rudi_media_caption</t>
+  </si>
+  <si>
+    <t>Description of the Media</t>
+  </si>
+  <si>
+    <t>rudi_media_visual</t>
+  </si>
+  <si>
+    <t>Link towards a (low-fidelity) visualization of the Media</t>
+  </si>
+  <si>
+    <t>rudi_media_media_dates_created</t>
+  </si>
+  <si>
+    <t>rudi_media_media_dates_validated</t>
+  </si>
+  <si>
+    <t>rudi_media_media_dates_published</t>
+  </si>
+  <si>
+    <t>rudi_media_media_dates_updated</t>
+  </si>
+  <si>
+    <t>rudi_media_media_dates_expires</t>
+  </si>
+  <si>
+    <t>rudi_media_media_dates_deleted</t>
+  </si>
+  <si>
+    <t>rudi_media_connector_connector_parameters</t>
+  </si>
+  <si>
+    <t>Additional parameters that can be used to refine the call to the URL</t>
+  </si>
+  <si>
+    <t>rudi_mediaservice_api_documentation_url</t>
+  </si>
+  <si>
+    <t>Link towards the resource that describes the structure of the API</t>
+  </si>
+  <si>
+    <t>rudi_metadata_info_contact_contact_summary</t>
+  </si>
+  <si>
+    <t>rudi_metadata_info_metadata_source</t>
+  </si>
+  <si>
+    <t>URI of the initial metadata</t>
+  </si>
+  <si>
+    <t>rudi_producer_organization_caption</t>
+  </si>
+  <si>
+    <t>rudi_producer_organization_summary</t>
+  </si>
+  <si>
+    <t>organization caption</t>
+  </si>
+  <si>
+    <t>organization summary</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>validated</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>expires</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>Media Connector parameters (as JSON array)</t>
+  </si>
+  <si>
+    <t>API documentation URL</t>
+  </si>
+  <si>
+    <t>Expires</t>
+  </si>
+  <si>
+    <t>Metadata expires date</t>
+  </si>
+  <si>
+    <t>Metadata info source</t>
+  </si>
+  <si>
+    <t>Provider organization caption</t>
+  </si>
+  <si>
+    <t>Provider organization summary</t>
+  </si>
+  <si>
+    <t>Metadata contact summary</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t>rudi_producer_organization_coordinates_latitude</t>
+  </si>
+  <si>
+    <t>rudi_producer_organization_coordinates_longitude</t>
+  </si>
+  <si>
+    <t>GPS coordinates in EPSG:4326/WGS 84 coordinates (latitude)</t>
+  </si>
+  <si>
+    <t>GPS coordinates in EPSG:4326/WGS 84 coordinates (longitude)</t>
+  </si>
+  <si>
+    <t>rudi_metadata_info_provider_organization_coordinates_latitude</t>
+  </si>
+  <si>
+    <t>rudi_metadata_info_provider_organization_coordinates_longitude</t>
+  </si>
+  <si>
+    <t>Provider organization coordinates latitude</t>
+  </si>
+  <si>
+    <t>Provider organization coordinates longitude</t>
+  </si>
+  <si>
+    <t>organization coordinates latitude</t>
+  </si>
+  <si>
+    <t>organization coordinates longitude</t>
   </si>
 </sst>
 </file>
@@ -921,7 +1101,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,6 +1111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -976,11 +1162,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1059,6 +1374,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AFB0736-AB2F-478A-A880-0BF57182F1CE}" name="Tableau1" displayName="Tableau1" ref="A3:Q127" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:Q127" xr:uid="{5AFB0736-AB2F-478A-A880-0BF57182F1CE}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{28818100-7632-4409-9608-F87996D5F078}" name="#datasetField" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{9ECF11A3-2DF8-436F-B0F3-43B36E1AE31D}" name="name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{48E5F376-E1FE-448E-A259-C28E2B2AFC14}" name="title" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3990A997-93CF-4BA2-B6ED-2B6FDDFB8388}" name="description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2D6BFF2F-722D-4971-BE86-ED64ED4ADBE1}" name="watermark" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{146823D1-0DAF-4814-9D8D-E7FACFD87A99}" name=" fieldType" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{5E1FCC21-A350-4151-9866-8E8F7D586839}" name="displayOrder" dataDxfId="10">
+      <calculatedColumnFormula>ROW(Tableau1[[#This Row],[displayOrder]])-4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{830E2F77-C95A-4B3D-B5EE-C069EB1E67FF}" name="displayFormat" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{AE85094D-87C2-479D-8EB2-6A071CD9138C}" name="advancedSearchField" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C0C8F5B6-5B8D-47A8-91D5-D6E5A9F8CD29}" name="allowControlledVocabulary" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{99E78AEB-AF1A-4E3D-8C1D-45C5412E2981}" name="allowmultiples" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{EE50F9DD-BC72-4742-9B61-52C9AA5C1969}" name="facetable" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{9FC4083D-A86F-45DE-9623-E41422B0BF22}" name="displayoncreate" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{B372EA02-D472-4B47-A467-A00EA401ABCC}" name="required" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{3EA6BFFB-E6D3-4493-A9B7-9130D8948909}" name="parent" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{2C143925-E312-4A35-B065-981AAA1AECD2}" name="metadatablock_id" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{7F759889-E153-424D-8B89-3F253F29C27C}" name="termURI" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,36 +1700,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:Q108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF80AF87-0CFD-4FB7-90A9-F3DF6CBC270E}">
+  <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="17.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="31" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
-    <col min="17" max="1025" width="11.42578125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1402,69 +1744,98 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1474,10 +1845,12 @@
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1501,11 +1874,14 @@
       <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1515,10 +1891,12 @@
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1542,11 +1920,14 @@
       <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1556,11 +1937,12 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="1">
-        <f>G5+1</f>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1584,11 +1966,14 @@
       <c r="N6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1605,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="1">
-        <f>G6+1</f>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1629,11 +2014,14 @@
       <c r="N7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1643,12 +2031,13 @@
       <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1">
-        <f>G6+1</f>
-        <v>3</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>42</v>
@@ -1671,11 +2060,14 @@
       <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1685,12 +2077,13 @@
       <c r="D9" s="4" t="s">
         <v>238</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="1">
-        <f>G8+1</f>
-        <v>4</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>26</v>
@@ -1719,8 +2112,10 @@
       <c r="P9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1730,12 +2125,13 @@
       <c r="D10" s="4" t="s">
         <v>239</v>
       </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="1">
-        <f>G9+1</f>
-        <v>5</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>26</v>
@@ -1764,8 +2160,10 @@
       <c r="P10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1775,12 +2173,13 @@
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="1">
-        <f>G7+1</f>
-        <v>4</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>42</v>
@@ -1803,12 +2202,15 @@
       <c r="N11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1817,12 +2219,13 @@
       <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" ref="G12:G51" si="0">G11+1</f>
-        <v>5</v>
+      <c r="G12" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>8</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>26</v>
@@ -1851,9 +2254,11 @@
       <c r="P12" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1862,12 +2267,13 @@
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="G13" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>9</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>26</v>
@@ -1896,8 +2302,10 @@
       <c r="P13" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1907,12 +2315,13 @@
       <c r="D14" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>26</v>
@@ -1935,11 +2344,14 @@
       <c r="N14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1949,12 +2361,13 @@
       <c r="D15" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>26</v>
@@ -1977,11 +2390,14 @@
       <c r="N15" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="30" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1991,12 +2407,13 @@
       <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>42</v>
@@ -2019,11 +2436,14 @@
       <c r="N16" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2033,12 +2453,13 @@
       <c r="D17" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>26</v>
@@ -2067,8 +2488,10 @@
       <c r="P17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
@@ -2078,12 +2501,13 @@
       <c r="D18" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>26</v>
@@ -2112,8 +2536,10 @@
       <c r="P18" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2123,12 +2549,13 @@
       <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>26</v>
@@ -2157,26 +2584,29 @@
       <c r="P19" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" ht="30" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>72</v>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>28</v>
@@ -2185,7 +2615,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>28</v>
@@ -2196,32 +2626,38 @@
       <c r="N20" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O20" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>75</v>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>28</v>
@@ -2239,28 +2675,31 @@
         <v>28</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>77</v>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>26</v>
@@ -2284,34 +2723,37 @@
         <v>28</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>80</v>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>19</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>28</v>
@@ -2329,79 +2771,83 @@
         <v>28</v>
       </c>
       <c r="O23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>83</v>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>21</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>28</v>
@@ -2424,26 +2870,29 @@
       <c r="P25" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>22</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>28</v>
@@ -2452,7 +2901,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>28</v>
@@ -2463,26 +2912,32 @@
       <c r="N26" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O26" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="P26" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>26</v>
@@ -2506,37 +2961,40 @@
         <v>28</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>28</v>
@@ -2551,28 +3009,31 @@
         <v>28</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>98</v>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>26</v>
@@ -2596,124 +3057,131 @@
         <v>28</v>
       </c>
       <c r="O29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>27</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>28</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>28</v>
@@ -2736,29 +3204,32 @@
       <c r="P32" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>110</v>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>28</v>
@@ -2781,23 +3252,26 @@
       <c r="P33" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>112</v>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>114</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>26</v>
@@ -2826,23 +3300,26 @@
       <c r="P34" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>115</v>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>26</v>
@@ -2871,29 +3348,30 @@
       <c r="P35" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>118</v>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>28</v>
@@ -2908,7 +3386,7 @@
         <v>27</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>89</v>
@@ -2916,29 +3394,30 @@
       <c r="P36" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>121</v>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>28</v>
@@ -2961,29 +3440,30 @@
       <c r="P37" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>124</v>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>126</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>34</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>28</v>
@@ -3006,29 +3486,30 @@
       <c r="P38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>127</v>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>35</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>28</v>
@@ -3043,7 +3524,7 @@
         <v>27</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>89</v>
@@ -3051,29 +3532,30 @@
       <c r="P39" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>130</v>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>36</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>28</v>
@@ -3096,29 +3578,30 @@
       <c r="P40" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>133</v>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>37</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>28</v>
@@ -3141,32 +3624,35 @@
       <c r="P41" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>28</v>
@@ -3186,35 +3672,38 @@
       <c r="P42" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>28</v>
@@ -3225,119 +3714,134 @@
       <c r="N43" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O43" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P43" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>143</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>40</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
         <v>41</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
         <v>42</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>28</v>
@@ -3346,7 +3850,7 @@
         <v>28</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>27</v>
@@ -3354,32 +3858,35 @@
       <c r="N46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O46" s="5" t="s">
-        <v>141</v>
+      <c r="O46" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>43</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>28</v>
@@ -3399,26 +3906,32 @@
       <c r="N47" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O47" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P47" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>44</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>26</v>
@@ -3442,34 +3955,37 @@
         <v>28</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>45</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>28</v>
@@ -3487,34 +4003,37 @@
         <v>28</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>46</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>28</v>
@@ -3532,34 +4051,37 @@
         <v>28</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>47</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>28</v>
@@ -3577,28 +4099,31 @@
         <v>28</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>162</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="G52" s="1">
-        <f>G50+1</f>
-        <v>44</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>48</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
@@ -3622,28 +4147,31 @@
         <v>28</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="G53" s="1">
-        <f>G51+1</f>
-        <v>45</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>49</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>26</v>
@@ -3667,31 +4195,34 @@
         <v>28</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" ref="G54:G62" si="1">G53+1</f>
-        <v>46</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>28</v>
@@ -3711,26 +4242,32 @@
       <c r="N54" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O54" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P54" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>51</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>26</v>
@@ -3754,28 +4291,31 @@
         <v>28</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>52</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>26</v>
@@ -3799,166 +4339,179 @@
         <v>28</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>175</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>53</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>54</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>55</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="1">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="G60" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>56</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>28</v>
@@ -3966,8 +4519,8 @@
       <c r="K60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L60" s="6" t="s">
-        <v>27</v>
+      <c r="L60" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>27</v>
@@ -3975,29 +4528,30 @@
       <c r="N60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O60" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="O60" s="1"/>
       <c r="P60" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>57</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>26</v>
@@ -4020,29 +4574,32 @@
       <c r="N61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O61" s="1" t="s">
-        <v>173</v>
+      <c r="O61" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>58</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>26</v>
@@ -4065,35 +4622,38 @@
       <c r="N62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>173</v>
+      <c r="O62" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G63" s="1">
-        <f>G61+1</f>
-        <v>54</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>59</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>28</v>
@@ -4101,8 +4661,8 @@
       <c r="K63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L63" s="6" t="s">
-        <v>27</v>
+      <c r="L63" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>27</v>
@@ -4110,32 +4670,36 @@
       <c r="N63" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O63" s="1"/>
       <c r="P63" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>196</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="G64" s="1">
-        <f>G63+1</f>
-        <v>55</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>60</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>28</v>
@@ -4152,26 +4716,32 @@
       <c r="N64" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O64" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="P64" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="G65" s="1">
-        <f>G63+1</f>
-        <v>55</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>61</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>26</v>
@@ -4195,28 +4765,31 @@
         <v>28</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G66" s="1">
-        <f>G64+1</f>
-        <v>56</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>26</v>
@@ -4240,28 +4813,31 @@
         <v>28</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G73" si="2">G66+1</f>
-        <v>57</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>63</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>26</v>
@@ -4285,385 +4861,411 @@
         <v>28</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>64</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>65</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>66</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>67</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>68</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>69</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G68" s="1">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="G74" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>70</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G69" s="1">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="G75" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>71</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G70" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="1">
-        <f>G72+1</f>
-        <v>63</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="1">
-        <f>G73+1</f>
-        <v>64</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O75" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G76" s="1">
-        <f>G75+1</f>
-        <v>65</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>72</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>26</v>
@@ -4677,8 +5279,8 @@
       <c r="K76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>28</v>
+      <c r="L76" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>27</v>
@@ -4686,29 +5288,32 @@
       <c r="N76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="5" t="s">
-        <v>216</v>
+      <c r="O76" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="G77" s="1">
-        <f>G76+1</f>
-        <v>66</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>73</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>26</v>
@@ -4722,8 +5327,8 @@
       <c r="K77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>28</v>
+      <c r="L77" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>27</v>
@@ -4731,29 +5336,30 @@
       <c r="N77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O77" s="5" t="s">
-        <v>216</v>
+      <c r="O77" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>227</v>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G78" s="1">
-        <f>G77+1</f>
-        <v>67</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>74</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>26</v>
@@ -4776,35 +5382,38 @@
       <c r="N78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O78" s="5" t="s">
-        <v>216</v>
+      <c r="O78" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>232</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="G79" s="1">
-        <f>G78+1</f>
-        <v>68</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>75</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>28</v>
@@ -4812,8 +5421,8 @@
       <c r="K79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>28</v>
+      <c r="L79" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>27</v>
@@ -4821,73 +5430,82 @@
       <c r="N79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O79" s="5" t="s">
-        <v>216</v>
+      <c r="O79" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>243</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>76</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="1">
-        <v>69</v>
-      </c>
-      <c r="H80" s="1" t="s">
+      <c r="G81" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>77</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="1">
-        <v>70</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4906,34 +5524,36 @@
       <c r="N81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O81" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="O81" s="1"/>
       <c r="P81" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G82" s="1">
-        <v>71</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>78</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>28</v>
@@ -4951,36 +5571,40 @@
         <v>28</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="G83" s="1">
-        <v>72</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>79</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>28</v>
@@ -4995,33 +5619,37 @@
         <v>28</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>246</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="G84" s="1">
-        <v>73</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>80</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>28</v>
@@ -5030,7 +5658,7 @@
         <v>28</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>27</v>
@@ -5039,33 +5667,37 @@
         <v>28</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>257</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="G85" s="1">
-        <v>74</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>81</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>28</v>
@@ -5083,39 +5715,43 @@
         <v>28</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>261</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="G86" s="1">
-        <v>75</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>82</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>28</v>
@@ -5126,29 +5762,36 @@
       <c r="N86" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O86" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P86" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>263</v>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G87" s="1">
-        <v>76</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>83</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>28</v>
@@ -5166,31 +5809,37 @@
         <v>28</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D88" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="G88" s="1">
-        <v>77</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>84</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>28</v>
@@ -5208,39 +5857,43 @@
         <v>28</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>271</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G89" s="1">
-        <v>78</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>85</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>28</v>
@@ -5251,29 +5904,38 @@
       <c r="N89" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O89" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P89" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D90" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G90" s="1">
-        <v>79</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>86</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>28</v>
@@ -5282,7 +5944,7 @@
         <v>28</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>27</v>
@@ -5291,25 +5953,31 @@
         <v>28</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G91" s="1">
-        <v>80</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>87</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>26</v>
@@ -5333,39 +6001,43 @@
         <v>28</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>272</v>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>280</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G92" s="1">
-        <v>81</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>88</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>28</v>
@@ -5376,30 +6048,38 @@
       <c r="N92" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O92" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P92" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="str">
-        <f>_xlfn.CONCAT(B92, "_lang")</f>
-        <v>rudi_access_condition_bibliographical_reference_lang</v>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G93" s="1">
-        <v>82</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>89</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>28</v>
@@ -5416,34 +6096,38 @@
       <c r="N93" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O93" s="1" t="str">
-        <f>B92</f>
-        <v>rudi_access_condition_bibliographical_reference</v>
+      <c r="O93" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="str">
-        <f>_xlfn.CONCAT(B92, "_text")</f>
-        <v>rudi_access_condition_bibliographical_reference_text</v>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D94" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G94" s="1">
-        <v>83</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>90</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>28</v>
@@ -5460,41 +6144,44 @@
       <c r="N94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O94" s="1" t="str">
-        <f>B92</f>
-        <v>rudi_access_condition_bibliographical_reference</v>
+      <c r="O94" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>273</v>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>281</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G95" s="1">
-        <v>84</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>28</v>
@@ -5505,24 +6192,32 @@
       <c r="N95" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O95" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P95" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="str">
-        <f t="shared" ref="B96" si="3">_xlfn.CONCAT(B95, "_lang")</f>
-        <v>rudi_access_condition_mandatory_mention_lang</v>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G96" s="1">
-        <v>85</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>92</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>26</v>
@@ -5545,31 +6240,35 @@
       <c r="N96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O96" s="1" t="str">
-        <f t="shared" ref="O96" si="4">B95</f>
-        <v>rudi_access_condition_mandatory_mention</v>
+      <c r="O96" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="str">
-        <f t="shared" ref="B97" si="5">_xlfn.CONCAT(B95, "_text")</f>
-        <v>rudi_access_condition_mandatory_mention_text</v>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G97" s="1">
-        <v>86</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>93</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>28</v>
@@ -5578,7 +6277,7 @@
         <v>28</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>28</v>
@@ -5589,38 +6288,42 @@
       <c r="N97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O97" s="1" t="str">
-        <f t="shared" ref="O97" si="6">B95</f>
-        <v>rudi_access_condition_mandatory_mention</v>
-      </c>
+      <c r="O97" s="1"/>
       <c r="P97" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G98" s="1">
-        <v>87</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>94</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>28</v>
@@ -5631,30 +6334,38 @@
       <c r="N98" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O98" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="P98" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="str">
-        <f t="shared" ref="B99" si="7">_xlfn.CONCAT(B98, "_lang")</f>
-        <v>rudi_access_condition_access_constraint_lang</v>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D99" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G99" s="1">
-        <v>88</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>95</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>28</v>
@@ -5671,34 +6382,38 @@
       <c r="N99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O99" s="1" t="str">
-        <f t="shared" ref="O99" si="8">B98</f>
-        <v>rudi_access_condition_access_constraint</v>
+      <c r="O99" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="P99" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="str">
-        <f t="shared" ref="B100" si="9">_xlfn.CONCAT(B98, "_text")</f>
-        <v>rudi_access_condition_access_constraint_text</v>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D100" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G100" s="1">
-        <v>89</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>96</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>28</v>
@@ -5715,29 +6430,35 @@
       <c r="N100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O100" s="1" t="str">
-        <f t="shared" ref="O100" si="10">B98</f>
-        <v>rudi_access_condition_access_constraint</v>
+      <c r="O100" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G101" s="1">
-        <v>90</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>97</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>28</v>
@@ -5746,7 +6467,7 @@
         <v>28</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>28</v>
@@ -5757,24 +6478,32 @@
       <c r="N101" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O101" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="P101" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="str">
-        <f t="shared" ref="B102" si="11">_xlfn.CONCAT(B101, "_lang")</f>
-        <v>rudi_access_condition_other_constraints_lang</v>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D102" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G102" s="1">
-        <v>91</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>98</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>26</v>
@@ -5797,31 +6526,35 @@
       <c r="N102" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O102" s="1" t="str">
-        <f t="shared" ref="O102" si="12">B101</f>
-        <v>rudi_access_condition_other_constraints</v>
+      <c r="O102" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="str">
-        <f t="shared" ref="B103" si="13">_xlfn.CONCAT(B101, "_text")</f>
-        <v>rudi_access_condition_other_constraints_text</v>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="G103" s="1">
-        <v>92</v>
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>99</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>28</v>
@@ -5841,89 +6574,1363 @@
       <c r="N103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O103" s="1" t="str">
-        <f t="shared" ref="O103" si="14">B101</f>
-        <v>rudi_access_condition_other_constraints</v>
+      <c r="O103" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="P103" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>100</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>101</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>102</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>103</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>104</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G109" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>105</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>106</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>107</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>108</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>109</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>110</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G115" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>111</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>112</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="str">
+        <f>_xlfn.CONCAT(B116, "_lang")</f>
+        <v>rudi_access_condition_bibliographical_reference_lang</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>113</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O117" s="1" t="str">
+        <f>B116</f>
+        <v>rudi_access_condition_bibliographical_reference</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="str">
+        <f>_xlfn.CONCAT(B116, "_text")</f>
+        <v>rudi_access_condition_bibliographical_reference_text</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>114</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O118" s="1" t="str">
+        <f>B116</f>
+        <v>rudi_access_condition_bibliographical_reference</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q118" s="1"/>
+    </row>
+    <row r="119" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>115</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="str">
+        <f>_xlfn.CONCAT(B119, "_lang")</f>
+        <v>rudi_access_condition_mandatory_mention_lang</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>116</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O120" s="1" t="str">
+        <f>B119</f>
+        <v>rudi_access_condition_mandatory_mention</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1" t="str">
+        <f>_xlfn.CONCAT(B119, "_text")</f>
+        <v>rudi_access_condition_mandatory_mention_text</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G121" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>117</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O121" s="1" t="str">
+        <f>B119</f>
+        <v>rudi_access_condition_mandatory_mention</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>118</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1" t="str">
+        <f>_xlfn.CONCAT(B122, "_lang")</f>
+        <v>rudi_access_condition_access_constraint_lang</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>119</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O123" s="1" t="str">
+        <f>B122</f>
+        <v>rudi_access_condition_access_constraint</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1" t="str">
+        <f>_xlfn.CONCAT(B122, "_text")</f>
+        <v>rudi_access_condition_access_constraint_text</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>120</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O124" s="1" t="str">
+        <f>B122</f>
+        <v>rudi_access_condition_access_constraint</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>121</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1" t="str">
+        <f>_xlfn.CONCAT(B125, "_lang")</f>
+        <v>rudi_access_condition_other_constraints_lang</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>122</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O126" s="1" t="str">
+        <f>B125</f>
+        <v>rudi_access_condition_other_constraints</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" s="1">
+        <f>ROW(Tableau1[[#This Row],[displayOrder]])-4</f>
+        <v>123</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E131" s="1">
+        <v>3</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D132" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E133" s="1">
         <v>2</v>
       </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <conditionalFormatting sqref="N4:N127">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",N4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B127">
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>$O4=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:Q127">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>$O4=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P127" xr:uid="{D12E34B5-D3F5-4B94-BE3A-6B7143B2A498}">
+      <formula1>"rudi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:N127" xr:uid="{31058AF0-F0FA-42C2-8D04-23821FB79B75}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H127" xr:uid="{BA3B3D7C-CC28-4A3A-AFD3-903479F304D6}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>#VALUE,#EMAIL,"""",""""</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"#VALUE,#EMAIL,"","""</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O127" xr:uid="{E956199A-C630-4C5B-B5F3-3D2479627713}">
+      <formula1>$B$4:$B$127</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>